--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\2804-Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samaa\Downloads\ASEN-2804-Test8\ASEN-2804-Test6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48526C-A589-471C-9DB8-27AF6CCD2CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A4AF2-F67A-4BC1-BFA9-7288E91E1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="6855" yWindow="4035" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -2468,9 +2468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2508,7 +2508,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2614,7 +2614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2756,7 +2756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2770,16 +2770,16 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>195</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>196</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>196</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>196</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>196</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>196</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>196</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>196</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>196</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>196</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>196</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>196</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>196</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>196</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>196</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>196</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>196</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>196</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>196</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>196</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>196</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>196</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>197</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>197</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>197</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>197</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>197</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>197</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>197</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
@@ -3774,7 +3774,7 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3785,22 +3785,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="11" max="11" width="6.81640625" customWidth="1"/>
-    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -4103,7 +4103,22 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <v>1200</v>
+      </c>
+      <c r="AV2">
+        <v>40</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4117,22 +4132,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4296,7 +4311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Input!A2</f>
         <v>Tempest Model</v>
@@ -4477,9 +4492,9 @@
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -4490,7 +4505,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -4501,7 +4516,7 @@
         <v>4.4250999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -4512,7 +4527,7 @@
         <v>3.3783000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -4523,7 +4538,7 @@
         <v>2.8627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>-2</v>
       </c>
@@ -4534,7 +4549,7 @@
         <v>2.5864000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -4545,7 +4560,7 @@
         <v>2.4643000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>2.5099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4567,7 +4582,7 @@
         <v>2.5635000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4578,7 +4593,7 @@
         <v>2.7660000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -4589,7 +4604,7 @@
         <v>3.0676999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -4600,7 +4615,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4611,7 +4626,7 @@
         <v>4.0403000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -4622,7 +4637,7 @@
         <v>4.759E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -4633,7 +4648,7 @@
         <v>5.7107999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -4644,7 +4659,7 @@
         <v>7.0132E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -4655,7 +4670,7 @@
         <v>9.0921000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -4666,7 +4681,7 @@
         <v>0.11193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -4677,7 +4692,7 @@
         <v>0.13253999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -4688,7 +4703,7 @@
         <v>0.15645000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
     </row>
@@ -4706,16 +4721,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -4732,7 +4747,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>20.8</v>
       </c>
@@ -4749,7 +4764,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>

--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samaa\Downloads\ASEN-2804-Test8\ASEN-2804-Test6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82A4AF2-F67A-4BC1-BFA9-7288E91E1843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD49630D-A67D-4AC3-A44A-053F71FE4C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="4035" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-23172" yWindow="-48" windowWidth="23304" windowHeight="13224" firstSheet="1" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="207">
   <si>
     <t>Length_f</t>
   </si>
@@ -1905,13 +1905,37 @@
   </si>
   <si>
     <t>Tempest Model</t>
+  </si>
+  <si>
+    <t>NACA 0015</t>
+  </si>
+  <si>
+    <t>NACA 2411</t>
+  </si>
+  <si>
+    <t>HT08</t>
+  </si>
+  <si>
+    <t>Flat Plate</t>
+  </si>
+  <si>
+    <t>Laurel's Model</t>
+  </si>
+  <si>
+    <t>Justin's Model</t>
+  </si>
+  <si>
+    <t>Sam's Model</t>
+  </si>
+  <si>
+    <t>Nico's Model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,6 +1989,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2066,7 +2103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2104,6 +2141,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2283,14 +2326,14 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>594629</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>8703</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>596429</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>10143</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>20303</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -2766,20 +2809,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880E5C65-4E84-4A1F-BBC6-77D4F9B2D0D9}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="104.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="104.453125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>195</v>
       </c>
@@ -2793,7 +2836,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2851,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2822,7 +2865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>196</v>
       </c>
@@ -2836,7 +2879,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>196</v>
       </c>
@@ -2850,7 +2893,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>196</v>
       </c>
@@ -2864,7 +2907,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>196</v>
       </c>
@@ -2878,7 +2921,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>196</v>
       </c>
@@ -2892,7 +2935,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>196</v>
       </c>
@@ -2906,7 +2949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>196</v>
       </c>
@@ -2920,7 +2963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
@@ -2934,7 +2977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>196</v>
       </c>
@@ -2948,7 +2991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>196</v>
       </c>
@@ -2962,7 +3005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>196</v>
       </c>
@@ -2976,7 +3019,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>196</v>
       </c>
@@ -2990,7 +3033,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>196</v>
       </c>
@@ -3004,7 +3047,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>196</v>
       </c>
@@ -3018,7 +3061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>196</v>
       </c>
@@ -3032,7 +3075,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>196</v>
       </c>
@@ -3046,7 +3089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>196</v>
       </c>
@@ -3060,7 +3103,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>196</v>
       </c>
@@ -3074,7 +3117,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>196</v>
       </c>
@@ -3088,7 +3131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>196</v>
       </c>
@@ -3102,7 +3145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>196</v>
       </c>
@@ -3116,7 +3159,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3130,7 +3173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -3144,7 +3187,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>196</v>
       </c>
@@ -3158,7 +3201,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>196</v>
       </c>
@@ -3172,7 +3215,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>196</v>
       </c>
@@ -3186,7 +3229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>196</v>
       </c>
@@ -3200,7 +3243,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>196</v>
       </c>
@@ -3214,7 +3257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>196</v>
       </c>
@@ -3228,7 +3271,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>196</v>
       </c>
@@ -3242,7 +3285,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>196</v>
       </c>
@@ -3256,7 +3299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>196</v>
       </c>
@@ -3270,7 +3313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>196</v>
       </c>
@@ -3284,7 +3327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>196</v>
       </c>
@@ -3298,7 +3341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -3312,7 +3355,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>196</v>
       </c>
@@ -3326,7 +3369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>196</v>
       </c>
@@ -3340,7 +3383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
@@ -3354,7 +3397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>196</v>
       </c>
@@ -3368,7 +3411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>196</v>
       </c>
@@ -3382,7 +3425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>196</v>
       </c>
@@ -3396,7 +3439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>196</v>
       </c>
@@ -3410,7 +3453,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>196</v>
       </c>
@@ -3424,7 +3467,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>196</v>
       </c>
@@ -3438,7 +3481,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>196</v>
       </c>
@@ -3452,7 +3495,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>196</v>
       </c>
@@ -3466,7 +3509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>196</v>
       </c>
@@ -3480,7 +3523,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>196</v>
       </c>
@@ -3494,7 +3537,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>196</v>
       </c>
@@ -3508,7 +3551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>197</v>
       </c>
@@ -3522,7 +3565,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>197</v>
       </c>
@@ -3536,7 +3579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -3550,7 +3593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>197</v>
       </c>
@@ -3564,7 +3607,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>197</v>
       </c>
@@ -3578,7 +3621,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>197</v>
       </c>
@@ -3592,7 +3635,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>197</v>
       </c>
@@ -3606,7 +3649,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>197</v>
       </c>
@@ -3620,7 +3663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>197</v>
       </c>
@@ -3634,7 +3677,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>197</v>
       </c>
@@ -3648,7 +3691,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>197</v>
       </c>
@@ -3662,7 +3705,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>197</v>
       </c>
@@ -3676,7 +3719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>197</v>
       </c>
@@ -3690,7 +3733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>197</v>
       </c>
@@ -3704,7 +3747,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>197</v>
       </c>
@@ -3718,7 +3761,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>197</v>
       </c>
@@ -3732,7 +3775,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>197</v>
       </c>
@@ -3746,7 +3789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>197</v>
       </c>
@@ -3770,11 +3813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB49278-C885-4626-918F-22B9EA08CAD8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="119" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="95" workbookViewId="0">
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3783,24 +3826,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="AV6" sqref="AV6"/>
+    <sheetView zoomScale="112" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -3955,7 +3998,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -4106,10 +4149,10 @@
         <v>2</v>
       </c>
       <c r="AU2">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="AV2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -4120,34 +4163,703 @@
       <c r="AY2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="18">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="E3" s="18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F3" s="18">
+        <f>D3/E3</f>
+        <v>4.4658823529411764</v>
+      </c>
+      <c r="G3" s="18">
+        <f>(PI()/4)*(E3*E3)</f>
+        <v>5.6745017305465653E-3</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.129</v>
+      </c>
+      <c r="M3" s="18">
+        <f>(1)^2/K3</f>
+        <v>16.366612111292962</v>
+      </c>
+      <c r="N3" s="18">
+        <f>0.0423/0.08</f>
+        <v>0.52874999999999994</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R3" s="16">
+        <v>6.7400000000000003E-3</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="T3" s="18">
+        <f>(0.15)^2/R3</f>
+        <v>3.3382789317507418</v>
+      </c>
+      <c r="U3" s="18">
+        <f>0.0398/0.05</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0</v>
+      </c>
+      <c r="W3" s="16">
+        <f>((0.04)+(0.05))/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X3" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="AH3" s="16">
+        <f>(0.1)^2/AF3</f>
+        <v>2.1321961620469088</v>
+      </c>
+      <c r="AI3" s="18">
+        <f>0.0438/0.0499</f>
+        <v>0.87775551102204408</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="16">
+        <f>((0.04)+(0.05))/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="AU3" s="18">
+        <v>875</v>
+      </c>
+      <c r="AV3" s="16">
+        <v>60</v>
+      </c>
+      <c r="AW3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1655</v>
+      </c>
+      <c r="C4" s="18">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1.35</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="18">
+        <f>D4/E4</f>
+        <v>8.4375</v>
+      </c>
+      <c r="G4" s="18">
+        <f>(PI()/4)*(E4*E4)</f>
+        <v>2.0106192982974676E-2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L4" s="18">
+        <f>(K4-0.04)*2</f>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>21</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R4" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="T4" s="18">
+        <f>0.75*0.75/R4</f>
+        <v>8.0357142857142847</v>
+      </c>
+      <c r="U4" s="18">
+        <v>1</v>
+      </c>
+      <c r="V4" s="18">
+        <v>0</v>
+      </c>
+      <c r="W4" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="18">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>800</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>60</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1656</v>
+      </c>
+      <c r="C5" s="18">
+        <f>(17+25)/2</f>
+        <v>21</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F5" s="18">
+        <f>D5/E5</f>
+        <v>8.3898305084745761</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1.3924000000000001E-2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.3924000000000001E-2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.126</v>
+      </c>
+      <c r="L5" s="18">
+        <f>K5*2</f>
+        <v>0.252</v>
+      </c>
+      <c r="M5" s="18">
+        <f>0.88/0.18</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18">
+        <v>10</v>
+      </c>
+      <c r="P5" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="18">
+        <f>0.108/0.09</f>
+        <v>1.2</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="X5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>0.108/0.09</f>
+        <v>1.2</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AH5" s="18">
+        <f>240/150</f>
+        <v>1.6</v>
+      </c>
+      <c r="AI5" s="18">
+        <f>110/200</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0.155</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AO5" s="18">
+        <f>240/150</f>
+        <v>1.6</v>
+      </c>
+      <c r="AP5" s="18">
+        <f>110/200</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>0.155</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>800</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>60</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>180</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="18">
+        <v>12</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="F6" s="18">
+        <f>D6/E6</f>
+        <v>6.3636363636363633</v>
+      </c>
+      <c r="G6" s="18">
+        <f>(PI()/4)*(E6*E6)</f>
+        <v>9.5033177771091243E-3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="L6" s="18">
+        <f>(K6)*2</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M6" s="18">
+        <v>5.96</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.67</v>
+      </c>
+      <c r="O6" s="18">
+        <v>4.75</v>
+      </c>
+      <c r="P6" s="18">
+        <v>4.75</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R6" s="17">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="S6" s="18">
+        <f>R6*2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T6" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="18">
+        <v>10</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
+        <f>AF6*2</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>600</v>
+      </c>
+      <c r="AV6" s="17">
+        <v>60</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AV7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BB7"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4311,7 +5023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>Input!A2</f>
         <v>Tempest Model</v>
@@ -4477,6 +5189,667 @@
       <c r="BB2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3">
+        <v>0.15</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>-0.67649999999999999</v>
+      </c>
+      <c r="F3">
+        <v>-0.60109999999999997</v>
+      </c>
+      <c r="G3">
+        <v>-0.52990000000000004</v>
+      </c>
+      <c r="H3">
+        <v>-0.43219999999999997</v>
+      </c>
+      <c r="I3">
+        <v>-0.20430000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.43209999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.6764</v>
+      </c>
+      <c r="P3">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.8024</v>
+      </c>
+      <c r="V3">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="X3">
+        <v>2.8080000000000001E-2</v>
+      </c>
+      <c r="Y3">
+        <v>2.725E-2</v>
+      </c>
+      <c r="Z3">
+        <v>2.6939999999999999E-2</v>
+      </c>
+      <c r="AA3">
+        <v>2.8170000000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>3.039E-2</v>
+      </c>
+      <c r="AC3">
+        <v>3.0360000000000002E-2</v>
+      </c>
+      <c r="AD3">
+        <v>3.039E-2</v>
+      </c>
+      <c r="AE3">
+        <v>2.8160000000000001E-2</v>
+      </c>
+      <c r="AF3">
+        <v>2.6939999999999999E-2</v>
+      </c>
+      <c r="AG3">
+        <v>2.725E-2</v>
+      </c>
+      <c r="AH3">
+        <v>2.8070000000000001E-2</v>
+      </c>
+      <c r="AI3">
+        <v>3.031E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>3.3590000000000002E-2</v>
+      </c>
+      <c r="AK3">
+        <v>0.38379999999999997</v>
+      </c>
+      <c r="AL3">
+        <v>4.5469999999999997E-2</v>
+      </c>
+      <c r="AM3">
+        <v>5.5190000000000003E-2</v>
+      </c>
+      <c r="AN3">
+        <v>7.7549999999999994E-2</v>
+      </c>
+      <c r="AO3">
+        <v>8.6754999999999999E-2</v>
+      </c>
+      <c r="AP3">
+        <v>2.691E-2</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3">
+        <v>0.8</v>
+      </c>
+      <c r="AS3">
+        <v>0.3</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3">
+        <v>0.08</v>
+      </c>
+      <c r="AY3">
+        <v>0.3</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-0.55169999999999997</v>
+      </c>
+      <c r="F4" s="18">
+        <v>-0.42430000000000001</v>
+      </c>
+      <c r="G4" s="18">
+        <v>-0.31480000000000002</v>
+      </c>
+      <c r="H4" s="18">
+        <v>-0.21099999999999999</v>
+      </c>
+      <c r="I4" s="18">
+        <v>-0.1057</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0.1057</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0.94369999999999998</v>
+      </c>
+      <c r="S4" s="18">
+        <v>1.0045999999999999</v>
+      </c>
+      <c r="T4" s="18">
+        <v>1.0584</v>
+      </c>
+      <c r="U4" s="18">
+        <v>1.109</v>
+      </c>
+      <c r="V4" s="18">
+        <v>1.1594</v>
+      </c>
+      <c r="W4" s="18">
+        <f>MAX(E4:V4)</f>
+        <v>1.1594</v>
+      </c>
+      <c r="X4" s="18">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>8.2100000000000003E-3</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="AC4" s="18">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>1.0149999999999999E-2</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>1.15E-2</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>1.295E-2</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>1.439E-2</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>1.7850000000000001E-2</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>2.019E-2</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>2.282E-2</v>
+      </c>
+      <c r="AP4" s="18">
+        <f>MIN(X4:AO4)</f>
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="AY4" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="AZ4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E5" s="18">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-0.44</v>
+      </c>
+      <c r="G5" s="18">
+        <v>-0.32</v>
+      </c>
+      <c r="H5" s="18">
+        <v>-0.22</v>
+      </c>
+      <c r="I5" s="18">
+        <v>-0.1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.33</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.44</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0.72</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0.76</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18">
+        <v>0.76</v>
+      </c>
+      <c r="X5" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AC5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>0.105</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>0.13</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AQ5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AT5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AW5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-0.25729999999999997</v>
+      </c>
+      <c r="F6" s="18">
+        <v>-0.13009999999999999</v>
+      </c>
+      <c r="G6" s="18">
+        <v>-1.7600000000000001E-2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.18340000000000001</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.4496</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.60209999999999997</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0.6865</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.93679999999999997</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1.0044</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1.0718000000000001</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1.1335</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1.1832</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1.2212000000000001</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1.2457</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="X6" s="18">
+        <v>0.1089</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>7.5900000000000004E-3</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>6.0200000000000002E-3</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>6.5599999999999999E-3</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>7.5500000000000003E-3</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>8.1899999999999994E-3</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>1.025E-2</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>1.2489999999999999E-2</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>1.478E-2</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>1.7090000000000001E-2</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>1.9539999999999998E-2</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>2.3019999999999999E-2</v>
+      </c>
+      <c r="AO6" s="18">
+        <v>2.8029999999999999E-2</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="AQ6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR6" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="AS6" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AT6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>0.11</v>
+      </c>
+      <c r="AY6" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AZ6" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4488,13 +5861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37039A-DE36-48A7-B09A-20ABDB8A0C39}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
@@ -4505,7 +5878,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>-5</v>
       </c>
@@ -4516,7 +5889,7 @@
         <v>4.4250999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>-4</v>
       </c>
@@ -4527,7 +5900,7 @@
         <v>3.3783000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>-3</v>
       </c>
@@ -4538,7 +5911,7 @@
         <v>2.8627E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>-2</v>
       </c>
@@ -4549,7 +5922,7 @@
         <v>2.5864000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>-1</v>
       </c>
@@ -4560,7 +5933,7 @@
         <v>2.4643000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4571,7 +5944,7 @@
         <v>2.5099E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4582,7 +5955,7 @@
         <v>2.5635000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4593,7 +5966,7 @@
         <v>2.7660000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -4604,7 +5977,7 @@
         <v>3.0676999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -4615,7 +5988,7 @@
         <v>3.4854999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -4626,7 +5999,7 @@
         <v>4.0403000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -4637,7 +6010,7 @@
         <v>4.759E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -4648,7 +6021,7 @@
         <v>5.7107999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -4659,7 +6032,7 @@
         <v>7.0132E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -4670,7 +6043,7 @@
         <v>9.0921000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -4681,7 +6054,7 @@
         <v>0.11193</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -4692,7 +6065,7 @@
         <v>0.13253999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -4703,7 +6076,7 @@
         <v>0.15645000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21" s="5"/>
       <c r="F21" s="15"/>
     </row>
@@ -4718,19 +6091,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
@@ -4747,7 +6120,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>20.8</v>
       </c>
@@ -4764,7 +6137,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>108</v>
       </c>

--- a/Design Input File.xlsx
+++ b/Design Input File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\OneDrive\Documents\MATLAB\ASEN2804\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923FA9B-678E-431F-A386-5183128C18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F470B1EA-3A58-4411-BE51-516E9B780B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="3" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="2" xr2:uid="{904FC4B5-3CDE-421B-8E98-23A2C72E8C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Reference" sheetId="8" r:id="rId1"/>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ADD393-55AB-49FB-9382-D2896E9EB980}">
   <dimension ref="A1:AY7"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3984,7 +3984,7 @@
         <v>1655</v>
       </c>
       <c r="C2">
-        <f>(17+25)/2</f>
+        <f t="shared" ref="C2:C7" si="0">(17+25)/2</f>
         <v>21</v>
       </c>
       <c r="D2">
@@ -3994,7 +3994,7 @@
         <v>0.16</v>
       </c>
       <c r="F2">
-        <f>D2/E2</f>
+        <f t="shared" ref="F2:F7" si="1">D2/E2</f>
         <v>9.75</v>
       </c>
       <c r="G2">
@@ -4150,7 +4150,7 @@
         <v>1656</v>
       </c>
       <c r="C3">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D3">
@@ -4160,7 +4160,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F3">
-        <f>D3/E3</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G3">
@@ -4183,8 +4183,8 @@
         <v>0.252</v>
       </c>
       <c r="M3">
-        <f>0.88/0.18</f>
-        <v>4.8888888888888893</v>
+        <f>0.22/0.18</f>
+        <v>1.2222222222222223</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -4199,14 +4199,14 @@
         <v>1.25</v>
       </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S3">
         <v>0.02</v>
       </c>
       <c r="T3">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f>0.25/0.09</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -4221,14 +4221,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z3">
         <v>0.02</v>
       </c>
       <c r="AA3">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f>0.25/0.09</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -4315,7 +4315,7 @@
         <v>1656</v>
       </c>
       <c r="C4">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D4">
@@ -4325,7 +4325,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F4">
-        <f>D4/E4</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G4">
@@ -4348,8 +4348,8 @@
         <v>0.252</v>
       </c>
       <c r="M4">
-        <f>0.88/0.18</f>
-        <v>4.8888888888888893</v>
+        <f>0.44/0.18</f>
+        <v>2.4444444444444446</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -4364,14 +4364,14 @@
         <v>1.25</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S4">
         <v>0.02</v>
       </c>
       <c r="T4">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" ref="T4:T7" si="2">0.25/0.09</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -4386,14 +4386,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z4">
         <v>0.02</v>
       </c>
       <c r="AA4">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" ref="AA4:AA7" si="3">0.25/0.09</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -4457,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="AU4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AV4">
         <v>60</v>
@@ -4480,7 +4480,7 @@
         <v>1656</v>
       </c>
       <c r="C5">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D5">
@@ -4490,7 +4490,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F5">
-        <f>D5/E5</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G5">
@@ -4513,8 +4513,8 @@
         <v>0.252</v>
       </c>
       <c r="M5">
-        <f>0.88/0.18</f>
-        <v>4.8888888888888893</v>
+        <f>0.66/0.18</f>
+        <v>3.666666666666667</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -4529,14 +4529,14 @@
         <v>1.25</v>
       </c>
       <c r="R5">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S5">
         <v>0.02</v>
       </c>
       <c r="T5">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -4551,14 +4551,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z5">
         <v>0.02</v>
       </c>
       <c r="AA5">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="AB5">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="AU5">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
         <v>60</v>
@@ -4645,7 +4645,7 @@
         <v>1656</v>
       </c>
       <c r="C6">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D6">
@@ -4655,7 +4655,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F6">
-        <f>D6/E6</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G6">
@@ -4694,14 +4694,14 @@
         <v>1.25</v>
       </c>
       <c r="R6">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S6">
         <v>0.02</v>
       </c>
       <c r="T6">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -4716,14 +4716,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z6">
         <v>0.02</v>
       </c>
       <c r="AA6">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="AU6">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
         <v>60</v>
@@ -4810,7 +4810,7 @@
         <v>1656</v>
       </c>
       <c r="C7">
-        <f>(17+25)/2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D7">
@@ -4820,7 +4820,7 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="F7">
-        <f>D7/E7</f>
+        <f t="shared" si="1"/>
         <v>8.3898305084745761</v>
       </c>
       <c r="G7">
@@ -4843,8 +4843,8 @@
         <v>0.252</v>
       </c>
       <c r="M7">
-        <f>0.88/0.18</f>
-        <v>4.8888888888888893</v>
+        <f>1/0.18</f>
+        <v>5.5555555555555554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -4859,14 +4859,14 @@
         <v>1.25</v>
       </c>
       <c r="R7">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="S7">
         <v>0.02</v>
       </c>
       <c r="T7">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -4881,14 +4881,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Z7">
         <v>0.02</v>
       </c>
       <c r="AA7">
-        <f>0.108/0.09</f>
-        <v>1.2</v>
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="AU7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
         <v>60</v>
@@ -4980,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538960B4-04F0-4DA1-BF31-3569558CC234}">
   <dimension ref="A1:BB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
